--- a/V9_ExternalRemote/TOS_RTD_Bridge.xlsx
+++ b/V9_ExternalRemote/TOS_RTD_Bridge.xlsx
@@ -1,34 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d02bc7633862b244/Desktop/WSGTA/Github/universal-or-strategy/V9_ExternalRemote/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3F0575EAEFEC353531510344D078D03" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BC8310-802B-46D6-BD5C-6CAF9DDC4C37}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>MGC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,82 +78,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="tos.rtd">
+      <tp t="s">
+        <v>N/A</v>
+        <stp/>
+        <stp>LAST</stp>
+        <stp>/MES</stp>
+        <tr r="A5" s="1"/>
+      </tp>
+      <tp>
+        <v>6940.76</v>
+        <stp/>
+        <stp>CUSTOM4</stp>
+        <stp>/MES:XCME</stp>
+        <tr r="B1" s="1"/>
+      </tp>
+      <tp>
+        <v>4950</v>
+        <stp/>
+        <stp>CUSTOM6</stp>
+        <stp>/MGC:XCEC</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp>
+        <v>6941.08</v>
+        <stp/>
+        <stp>CUSTOM6</stp>
+        <stp>/MES:XCME</stp>
+        <tr r="C1" s="1"/>
+      </tp>
+      <tp>
+        <v>4954.2</v>
+        <stp/>
+        <stp>CUSTOM4</stp>
+        <stp>/MGC:XCEC</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,52 +430,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>MES</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
         <f>RTD("tos.rtd",,"CUSTOM4","/MES:XCME")</f>
-        <v/>
+        <v>6940.76</v>
       </c>
       <c r="C1">
         <f>RTD("tos.rtd",,"CUSTOM6","/MES:XCME")</f>
-        <v/>
+        <v>6941.08</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MGC</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <f>RTD("tos.rtd",,"CUSTOM4","/MGC:XCEC")</f>
-        <v/>
+        <v>4954.2</v>
       </c>
       <c r="C2">
         <f>RTD("tos.rtd",,"CUSTOM6","/MGC:XCEC")</f>
-        <v/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="str">
+        <f>RTD("tos.rtd", , "LAST", "/MES")</f>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>

--- a/V9_ExternalRemote/TOS_RTD_Bridge.xlsx
+++ b/V9_ExternalRemote/TOS_RTD_Bridge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d02bc7633862b244/Desktop/WSGTA/Github/universal-or-strategy/V9_ExternalRemote/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Khalid\OneDrive\Desktop\WSGTA\Github\universal-or-strategy\V9_ExternalRemote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3F0575EAEFEC353531510344D078D03" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BC8310-802B-46D6-BD5C-6CAF9DDC4C37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEEBF4C-5E19-4F84-95FE-922F40A7FE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7430" yWindow="3790" windowWidth="6460" windowHeight="6860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="6"/>
@@ -78,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,32 +113,39 @@
         <v>N/A</v>
         <stp/>
         <stp>LAST</stp>
+        <stp>/MES[H26]</stp>
+        <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>N/A</v>
+        <stp/>
+        <stp>LAST</stp>
         <stp>/MES</stp>
         <tr r="A5" s="1"/>
       </tp>
-      <tp>
-        <v>6940.76</v>
+      <tp t="s">
+        <v>loading</v>
         <stp/>
         <stp>CUSTOM4</stp>
         <stp>/MES:XCME</stp>
         <tr r="B1" s="1"/>
       </tp>
-      <tp>
-        <v>4950</v>
+      <tp t="s">
+        <v>loading</v>
         <stp/>
         <stp>CUSTOM6</stp>
         <stp>/MGC:XCEC</stp>
         <tr r="C2" s="1"/>
       </tp>
-      <tp>
-        <v>6941.08</v>
+      <tp t="s">
+        <v>loading</v>
         <stp/>
         <stp>CUSTOM6</stp>
         <stp>/MES:XCME</stp>
         <tr r="C1" s="1"/>
       </tp>
-      <tp>
-        <v>4954.2</v>
+      <tp t="s">
+        <v>loading</v>
         <stp/>
         <stp>CUSTOM4</stp>
         <stp>/MGC:XCEC</stp>
@@ -140,10 +154,6 @@
     </main>
   </volType>
 </volTypes>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,26 +457,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="str">
         <f>RTD("tos.rtd",,"CUSTOM4","/MES:XCME")</f>
-        <v>6940.76</v>
-      </c>
-      <c r="C1">
+        <v>loading</v>
+      </c>
+      <c r="C1" t="str">
         <f>RTD("tos.rtd",,"CUSTOM6","/MES:XCME")</f>
-        <v>6941.08</v>
+        <v>loading</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <f>RTD("tos.rtd",,"CUSTOM4","/MGC:XCEC")</f>
-        <v>4954.2</v>
-      </c>
-      <c r="C2">
+        <v>loading</v>
+      </c>
+      <c r="C2" t="str">
         <f>RTD("tos.rtd",,"CUSTOM6","/MGC:XCEC")</f>
-        <v>4950</v>
+        <v>loading</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -475,7 +485,14 @@
         <v>N/A</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="str">
+        <f>RTD("tos.rtd", , "LAST", "/MES[H26]")</f>
+        <v>N/A</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>